--- a/attachments/forms/PI.xlsx
+++ b/attachments/forms/PI.xlsx
@@ -1,26 +1,217 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cox_biz\business\SalesManager\forms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5C553-7634-47D0-9283-F442AFFAB178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1CBCEB37-9089-4703-BEFD-DD869501A679}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PI!$B$1:$G$47</definedName>
+    <definedName name="제품구분">#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Profoma Invoice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bill to</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref: </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO:</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">From: </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">To: </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit Price</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Estimated delivery date will be 4 weeks from order confirmation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harmonized CODE : 8525899000, ECCN : 6A003.b.4.b. ,Country of Origin: S. Korea</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harmonized CODE for AIO320B (9Hz) : 8525899000, ECCN : 6A993.a. ,Country of Origin: S. Korea</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> REMARK</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1. The exporter of the products covered by this document customs authorisation No 010-13-200210</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> declares that, </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      except where otherwise clearly indicated, these products are of Korea preferential origin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2. INCOTERMS : EXW(Door-To-Door Shipping)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3. Bank transaction fee shall be paid by customer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4. Warranty terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      (1) It is warranted by COX against defective workmanship or materials for one full year from date of shipment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      (2) Warranty for the 2nd year shall be subjected to restriction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          1) Cost for parts requiried for repairing, except sensor, shall not be charged. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          2) Labor cost for repairing shall not be charged.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          3) One way freight cost shall be born by distributor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. Payment is proceeded by 100% T/T in advance</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bank Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Bank name: Industrial Bank of Korea</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   Bank branch: Bundang Parkview Branch</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                            Jungja-Dong, Sungnam, Gyeonggi, Korea</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   SWIFT Code: IBKOKRSEXXX</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   Account No.: 420-043389-56-00010</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          BUYER AUTHORIZED SIGNATURE</t>
+  </si>
+  <si>
+    <t>SELLER AUTHORIZED SIGNATURE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="179" formatCode="_-&quot;US$&quot;* #,##0_ ;_-&quot;US$&quot;* \-#,##0\ ;_-&quot;US$&quot;* &quot;-&quot;_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +219,127 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -45,15 +347,399 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="58">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2 2" xfId="2" xr:uid="{5D40E848-5FD7-409D-899F-32D384D1FBF0}"/>
+    <cellStyle name="표준 2 3" xfId="1" xr:uid="{236B6B67-BE87-4B7C-A153-6CCA5A1F60EE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,10 +754,65 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3014382</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>729820</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>163390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961D8D70-405D-4655-99F7-53300FDF34F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5692588" y="12203207"/>
+          <a:ext cx="2433115" cy="1317595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -79,44 +820,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -146,12 +887,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -181,7 +922,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -190,153 +931,611 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9520E7-84A3-406D-909F-F654D859DF00}">
+  <sheetPr codeName="Sheet10">
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="2:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="28">
+        <f>SUM(E12:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30">
+        <f>SUM(G12:G21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="40"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="44"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="46"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="46"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 G6" xr:uid="{D8F6F1A6-6523-40FB-961B-E80BB2FB1F06}">
+      <formula1>INDIRECT("tbl_해외[문서번호]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.62992125984251968" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"-,굵게"&amp;10#810, Hanwha Biz Metro 1-cha, 242, Ditital-ro, Guro-gu, Seou, Korea (Zip:08394)
+Phone: 82-2-857-3888, Fax: 82-70-7614-3871 Email: sales@coxcamera.com www.coxcamera.com&amp;R&amp;G</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>